--- a/biology/Médecine/Émile_Vallin/Émile_Vallin.xlsx
+++ b/biology/Médecine/Émile_Vallin/Émile_Vallin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89mile_Vallin</t>
+          <t>Émile_Vallin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Émile Arthur Vallin, né le 27 novembre 1833 à Nantes et mort en février 1924 à Montpellier, est un médecin militaire français, considéré comme un précurseur de la santé publique en France[2], pasteurien convaincu.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Émile Arthur Vallin, né le 27 novembre 1833 à Nantes et mort en février 1924 à Montpellier, est un médecin militaire français, considéré comme un précurseur de la santé publique en France, pasteurien convaincu.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89mile_Vallin</t>
+          <t>Émile_Vallin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,15 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vie personnelle
-Fils de François-Auguste Vallin, médecin à Nantes, et de Fanny Robertson-Martel[3], il épousa le 15 septembre 1866, Berthe Marie Vidal dont il divorcera pour épouser le 2 avril 1882 Louise Marie Bidermann.
-Vie professionnelle
-Après des études secondaires à Nantes, il est interne lauréat des hôpitaux de Nantes au concours de 1853 puis prosecteur à l’École secondaire de médecine de Nantes en 1855. Le 8 février 1858, il passe sa thèse de médecine à la Faculté de médecine de Paris et en décembre de la même année, il est nommé médecin stagiaire à l’École impériale d'application de médecine et de pharmacie militaires.
-Du 5 août 1860 au 16 juin 1861, il participe au Corps expéditionnaire de Syrie. À son retour, il est nommé à l’Hôpital militaire de Strasbourg. En 1865, il réussit au concours d'agrégation ce qui le conduit au poste de professeur d'épidémiologie à l’Hôpital d'instruction des armées du Val-de-Grâce[4].
-Il participe à la guerre franco-allemande de 1870.
-En 1879, il fonde la Revue d'hygiène et de police sanitaire. Dès 1884, il préconise que « la tuberculose soit inscrite sur les listes des maladies contagieuses du bétail, ce qui obligeait les éleveurs à la déclarer, isoler les bêtes malades, à les abattre, et détruire les viandes, ce qui fut rendu possible à partir de 1888, avec la parution d’un premier décret présidentiel[5]. » Il devient le bras droit de Brouardel au Comité consultatif d'hygiène publique qui dépend de l'autorité du Ministre de l'Intérieur[6].
-De 1888 à 1893, il est directeur de l'École de santé militaire de Lyon[7].
-Le 22 avril 1898, il est nommé médecin inspecteur, directeur du service de santé du gouvernement militaire de Paris[3].
+          <t>Vie personnelle</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils de François-Auguste Vallin, médecin à Nantes, et de Fanny Robertson-Martel, il épousa le 15 septembre 1866, Berthe Marie Vidal dont il divorcera pour épouser le 2 avril 1882 Louise Marie Bidermann.
 </t>
         </is>
       </c>
@@ -532,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89mile_Vallin</t>
+          <t>Émile_Vallin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,14 +557,24 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Publications</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>De la salubrité de la profession militaire, Paris, Baillière, 1869.
-De la Forme ambulatoire ou apyrétique grave de la fièvre typhoïde, Paris, P. Asselin, 1873.
-De l'Emploi du bromure de potassium comme adjuvant dans le traitement des fièvres intermittentes, Paris, typogr. de A. Hennuyer, 1873.</t>
+          <t>Vie professionnelle</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après des études secondaires à Nantes, il est interne lauréat des hôpitaux de Nantes au concours de 1853 puis prosecteur à l’École secondaire de médecine de Nantes en 1855. Le 8 février 1858, il passe sa thèse de médecine à la Faculté de médecine de Paris et en décembre de la même année, il est nommé médecin stagiaire à l’École impériale d'application de médecine et de pharmacie militaires.
+Du 5 août 1860 au 16 juin 1861, il participe au Corps expéditionnaire de Syrie. À son retour, il est nommé à l’Hôpital militaire de Strasbourg. En 1865, il réussit au concours d'agrégation ce qui le conduit au poste de professeur d'épidémiologie à l’Hôpital d'instruction des armées du Val-de-Grâce.
+Il participe à la guerre franco-allemande de 1870.
+En 1879, il fonde la Revue d'hygiène et de police sanitaire. Dès 1884, il préconise que « la tuberculose soit inscrite sur les listes des maladies contagieuses du bétail, ce qui obligeait les éleveurs à la déclarer, isoler les bêtes malades, à les abattre, et détruire les viandes, ce qui fut rendu possible à partir de 1888, avec la parution d’un premier décret présidentiel. » Il devient le bras droit de Brouardel au Comité consultatif d'hygiène publique qui dépend de l'autorité du Ministre de l'Intérieur.
+De 1888 à 1893, il est directeur de l'École de santé militaire de Lyon.
+Le 22 avril 1898, il est nommé médecin inspecteur, directeur du service de santé du gouvernement militaire de Paris.
+</t>
         </is>
       </c>
     </row>
@@ -564,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89mile_Vallin</t>
+          <t>Émile_Vallin</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,12 +599,48 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>De la salubrité de la profession militaire, Paris, Baillière, 1869.
+De la Forme ambulatoire ou apyrétique grave de la fièvre typhoïde, Paris, P. Asselin, 1873.
+De l'Emploi du bromure de potassium comme adjuvant dans le traitement des fièvres intermittentes, Paris, typogr. de A. Hennuyer, 1873.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Émile_Vallin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89mile_Vallin</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Chevalier, puis officier et enfin  commandeur de la Légion d'honneur le 26 décembre 1894[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Chevalier, puis officier et enfin  commandeur de la Légion d'honneur le 26 décembre 1894.
  Officier de l'ordre des Palmes académiques (7 juin 1876).
  Officier de l'ordre du Médjidié (9 octobre 1886).
 Membre de l'Académie nationale de médecine, section d'hygiène (élu en 1885)
